--- a/data/trans_bre/P16A01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.065046389075334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.8741351571891792</v>
+        <v>-0.8741351571891807</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03098892778359583</v>
@@ -649,7 +649,7 @@
         <v>-0.1895222837803976</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1169673087962772</v>
+        <v>-0.1169673087962774</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.365346639023785</v>
+        <v>-4.301083479345805</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.463041290358238</v>
+        <v>-7.012013978287679</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.898938266448694</v>
+        <v>-7.350215799924796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.210551574574319</v>
+        <v>-5.08953419886308</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4787421631139817</v>
+        <v>-0.4909476555135183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4220909335465722</v>
+        <v>-0.4513618818989241</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5098694103485633</v>
+        <v>-0.5212250872628875</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4899575410155754</v>
+        <v>-0.5047650173241249</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.036281847343028</v>
+        <v>4.953501352729004</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.778614976924776</v>
+        <v>3.903161528572364</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.755939820852355</v>
+        <v>2.712226041904962</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.525353370392585</v>
+        <v>2.40073024386423</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.069180665098134</v>
+        <v>1.004795071619492</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5079068139415098</v>
+        <v>0.4164972351641126</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3512460889492796</v>
+        <v>0.2984923627046338</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4912462055296057</v>
+        <v>0.4581825685592554</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.2917014656899392</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.83163089707582</v>
+        <v>2.831630897075819</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.03437861244553632</v>
@@ -749,7 +749,7 @@
         <v>0.04000948427284699</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.7939325395309159</v>
+        <v>0.7939325395309155</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.973440351219295</v>
+        <v>-3.251095154144311</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.823102083445402</v>
+        <v>-8.588328208645676</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.284784814693931</v>
+        <v>-3.006916639218862</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.6049482178241981</v>
+        <v>-0.1598879046697266</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.38516971503673</v>
+        <v>-0.4247431365927828</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5675202303418582</v>
+        <v>-0.5595989326634594</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3558332610801995</v>
+        <v>-0.3405015885488609</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1607607743600817</v>
+        <v>-0.04947891208476248</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.066419956866509</v>
+        <v>2.97913509440152</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.6861366353712056</v>
+        <v>-0.3813227626926892</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.659976661880898</v>
+        <v>3.748071207425957</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.293932134274558</v>
+        <v>5.579255788929069</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6428965364441446</v>
+        <v>0.6108112604741442</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.05367887750003953</v>
+        <v>-0.02990452975463456</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6656633165367424</v>
+        <v>0.6729918441105145</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.192139911549599</v>
+        <v>2.581466840014739</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.778443319851685</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.04360030288839</v>
+        <v>2.043600302888392</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.5495316669482938</v>
@@ -849,7 +849,7 @@
         <v>0.298782471176598</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2658472417070486</v>
+        <v>0.2658472417070488</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.238280993434303</v>
+        <v>-5.284466271721357</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.231341312876079</v>
+        <v>-5.326171749343873</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.252666246695956</v>
+        <v>-2.037414485728791</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.717247393808648</v>
+        <v>-2.000569658252283</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.8419336880424451</v>
+        <v>-0.8423028799086412</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3960056425739675</v>
+        <v>-0.4044584711754923</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3021316305729492</v>
+        <v>-0.2732770329862077</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1798544366818479</v>
+        <v>-0.2274728655581764</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2534533416934983</v>
+        <v>0.2787477833504521</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.135222236762695</v>
+        <v>4.392060261615308</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.592152113449789</v>
+        <v>5.941650118128115</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.918800859523309</v>
+        <v>6.154013857962771</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.231013712202264</v>
+        <v>0.2116433745315165</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.499010829838826</v>
+        <v>0.5141851542294653</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.357410961085501</v>
+        <v>1.427847928255362</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.106383980881806</v>
+        <v>1.08651470629759</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.952644676030967</v>
+        <v>-3.91622131012206</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4703601826141452</v>
+        <v>-0.6534686963764356</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.917384090459343</v>
+        <v>-5.955954793403249</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.266354580263952</v>
+        <v>-6.221936453272552</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5314368045933761</v>
+        <v>-0.529900733848365</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06797764240212055</v>
+        <v>-0.1398174825764267</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5297281562584704</v>
+        <v>-0.5439789297924051</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5241012200870782</v>
+        <v>-0.5255242306582584</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.897479748239232</v>
+        <v>2.526713576189834</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.554459793600166</v>
+        <v>7.624177423142477</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.997916160262757</v>
+        <v>2.086369881061109</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.0094180967658</v>
+        <v>3.613921848205249</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7551245407329058</v>
+        <v>0.6126100698609654</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.668483222455942</v>
+        <v>1.665349885533649</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2950586173338985</v>
+        <v>0.3086487419204185</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5871230825590739</v>
+        <v>0.7232702810321185</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.365691378719984</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.153044131178716</v>
+        <v>4.153044131178714</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.005650495121143511</v>
@@ -1049,7 +1049,7 @@
         <v>0.2062848268908261</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5971121824719995</v>
+        <v>0.597112182471999</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.7144253672799</v>
+        <v>-4.591729846898192</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.126501723059759</v>
+        <v>-8.87769675685646</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.541706239487885</v>
+        <v>-3.723830331688549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.5765517729343258</v>
+        <v>0.196846013001356</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5264091636964078</v>
+        <v>-0.5156393467905318</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5387240957736711</v>
+        <v>-0.5576518194854144</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4172946745877766</v>
+        <v>-0.4252957199300152</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.079091378391519</v>
+        <v>0.005159320404056622</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.955373416721764</v>
+        <v>5.199389580099491</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.049287093789857</v>
+        <v>3.653760287646313</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.966646300500041</v>
+        <v>6.139830936170953</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.182968568529496</v>
+        <v>8.721762166769617</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9839920438891037</v>
+        <v>1.098259396402985</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4743882565420063</v>
+        <v>0.4004051614294679</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.384832815080551</v>
+        <v>1.489838029456386</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.671346950859099</v>
+        <v>1.70367181994343</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>2.159600986740962</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.6392799105518016</v>
+        <v>-0.6392799105518043</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.07370658735364694</v>
@@ -1149,7 +1149,7 @@
         <v>0.3084475277839512</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.07895357077241619</v>
+        <v>-0.07895357077241652</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.225955633432523</v>
+        <v>-4.512440603340502</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-10.38405322884726</v>
+        <v>-10.4125224407776</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.617600356182807</v>
+        <v>-2.656697441528264</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.654383149565526</v>
+        <v>-4.580906120055408</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5585344817473482</v>
+        <v>-0.568527558753565</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5600947982846617</v>
+        <v>-0.5662699281922885</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3020136187259043</v>
+        <v>-0.3223694370339502</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4644970894792804</v>
+        <v>-0.4486219646848884</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.506060720184308</v>
+        <v>3.636178678714125</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.381738115748821</v>
+        <v>0.6274546328242993</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.207133087773646</v>
+        <v>6.679433622821046</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.092607930423599</v>
+        <v>2.872618994366408</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8338106726647059</v>
+        <v>0.9079711748151599</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1825924470243188</v>
+        <v>0.07184883784365304</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.579546364530441</v>
+        <v>1.388256401264364</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.484066812943401</v>
+        <v>0.4942749272209644</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.461555497958365</v>
+        <v>-4.341094697544024</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.482947626370898</v>
+        <v>-5.656228886845438</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.853687676872388</v>
+        <v>-3.759983199351705</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.53544924034777</v>
+        <v>-4.633080102611182</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4763803050440142</v>
+        <v>-0.4637649830594408</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.5296358216361702</v>
+        <v>-0.5449075883574832</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3888162642690364</v>
+        <v>-0.3756031126541055</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3467380666288623</v>
+        <v>-0.3464100227324881</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.169711375286675</v>
+        <v>1.153449400803315</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3117672560579927</v>
+        <v>0.3321908160915701</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.412033148805899</v>
+        <v>2.53070531980069</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.302816569712336</v>
+        <v>2.355690869302576</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1904841458485966</v>
+        <v>0.210823777113249</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05742625524593328</v>
+        <v>0.05217103080164077</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3445964405380839</v>
+        <v>0.3821319617356496</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2741704145202501</v>
+        <v>0.2927962768335708</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>2.879193841912997</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.3436052787193486</v>
+        <v>0.34360527871935</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07948718486431977</v>
@@ -1349,7 +1349,7 @@
         <v>0.4131230230092316</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.06335597551403459</v>
+        <v>0.06335597551403485</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.009987493567444</v>
+        <v>-2.39206994411393</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.276133630875943</v>
+        <v>-1.134985977445732</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08533285239830585</v>
+        <v>-0.2682269324979767</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.783516605239626</v>
+        <v>-1.915182110969927</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2115390074329959</v>
+        <v>-0.256452448766142</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2058143376891738</v>
+        <v>-0.1870546060775587</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01303811350260176</v>
+        <v>-0.04057743071278802</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2782148048015161</v>
+        <v>-0.2873040831936488</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.818388647153691</v>
+        <v>3.690259185755111</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.548081765578247</v>
+        <v>3.70075980757854</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.709322275401509</v>
+        <v>5.825994944870154</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.273924433704431</v>
+        <v>2.491482922321035</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5439802985591047</v>
+        <v>0.5273968092345258</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9270445453747173</v>
+        <v>0.8897668240840493</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.02939266726458</v>
+        <v>1.018803412073635</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5437796213078769</v>
+        <v>0.5887719770417509</v>
       </c>
     </row>
     <row r="28">
@@ -1449,7 +1449,7 @@
         <v>0.08284537357038721</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.07576132804343329</v>
+        <v>0.07576132804343327</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.711476365191145</v>
+        <v>-1.848516377337497</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.603764104191439</v>
+        <v>-2.58972472087145</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6089132452139678</v>
+        <v>-0.6693154118063223</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.7559738761700685</v>
+        <v>-0.7173595568875217</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.2259228513920367</v>
+        <v>-0.244501971801703</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.2517546957822935</v>
+        <v>-0.2526878345897547</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.07198216845185318</v>
+        <v>-0.07905150088331346</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.09380571743312735</v>
+        <v>-0.0914135642381267</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7862892395329533</v>
+        <v>0.733799006381563</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3066625097657593</v>
+        <v>0.285251776718243</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.013455741702373</v>
+        <v>1.986316457236846</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.772997617079914</v>
+        <v>1.867957441027557</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.1271168489783965</v>
+        <v>0.1170871431458041</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03485954855299427</v>
+        <v>0.03115672697176034</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2838380150947195</v>
+        <v>0.2810799712842249</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2749641623571583</v>
+        <v>0.2827593165105718</v>
       </c>
     </row>
     <row r="31">
